--- a/Code/Results/Cases/Case_3_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003708457850406</v>
+        <v>1.036099460753967</v>
       </c>
       <c r="D2">
-        <v>1.023457855205272</v>
+        <v>1.042337898687244</v>
       </c>
       <c r="E2">
-        <v>1.01891642485206</v>
+        <v>1.044645817576086</v>
       </c>
       <c r="F2">
-        <v>1.028219754199461</v>
+        <v>1.05455329833542</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044359518261481</v>
+        <v>1.034184161016004</v>
       </c>
       <c r="J2">
-        <v>1.025778812534957</v>
+        <v>1.041209624849915</v>
       </c>
       <c r="K2">
-        <v>1.034599778987908</v>
+        <v>1.04511486930196</v>
       </c>
       <c r="L2">
-        <v>1.030118367116793</v>
+        <v>1.047416283515993</v>
       </c>
       <c r="M2">
-        <v>1.039299458792916</v>
+        <v>1.057296191440882</v>
       </c>
       <c r="N2">
-        <v>1.027235536107232</v>
+        <v>1.042688261945616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008141432631195</v>
+        <v>1.037051341506283</v>
       </c>
       <c r="D3">
-        <v>1.026679812077501</v>
+        <v>1.04304969165982</v>
       </c>
       <c r="E3">
-        <v>1.02256628006509</v>
+        <v>1.04548100243015</v>
       </c>
       <c r="F3">
-        <v>1.032121495461723</v>
+        <v>1.055446676686627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045258586032012</v>
+        <v>1.034314746747185</v>
       </c>
       <c r="J3">
-        <v>1.02841258798443</v>
+        <v>1.041805317070951</v>
       </c>
       <c r="K3">
-        <v>1.036982331572307</v>
+        <v>1.045637732967678</v>
       </c>
       <c r="L3">
-        <v>1.032918338855418</v>
+        <v>1.048062686062535</v>
       </c>
       <c r="M3">
-        <v>1.042359232376355</v>
+        <v>1.058002631086925</v>
       </c>
       <c r="N3">
-        <v>1.029873051819941</v>
+        <v>1.043284800117932</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010954501337195</v>
+        <v>1.03766789880341</v>
       </c>
       <c r="D4">
-        <v>1.028726752395469</v>
+        <v>1.043510611168711</v>
       </c>
       <c r="E4">
-        <v>1.024888368832308</v>
+        <v>1.046022330412263</v>
       </c>
       <c r="F4">
-        <v>1.034603325020449</v>
+        <v>1.056025668133737</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045818548338634</v>
+        <v>1.034397995007858</v>
       </c>
       <c r="J4">
-        <v>1.030082080970644</v>
+        <v>1.042190780797846</v>
       </c>
       <c r="K4">
-        <v>1.038490405676258</v>
+        <v>1.045975729512719</v>
       </c>
       <c r="L4">
-        <v>1.034695413549105</v>
+        <v>1.048481211112893</v>
       </c>
       <c r="M4">
-        <v>1.044301313265282</v>
+        <v>1.058460022975323</v>
       </c>
       <c r="N4">
-        <v>1.031544915677689</v>
+        <v>1.043670811247532</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012124317641967</v>
+        <v>1.037927248415337</v>
       </c>
       <c r="D5">
-        <v>1.02957848114587</v>
+        <v>1.043704462010726</v>
       </c>
       <c r="E5">
-        <v>1.02585539861337</v>
+        <v>1.046250120438522</v>
       </c>
       <c r="F5">
-        <v>1.035636755189096</v>
+        <v>1.056269293787095</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046048831782023</v>
+        <v>1.034432692873686</v>
       </c>
       <c r="J5">
-        <v>1.030775863193692</v>
+        <v>1.042352831283936</v>
       </c>
       <c r="K5">
-        <v>1.039116570284583</v>
+        <v>1.046117742792241</v>
       </c>
       <c r="L5">
-        <v>1.035434437577544</v>
+        <v>1.04865721991717</v>
       </c>
       <c r="M5">
-        <v>1.045108981738501</v>
+        <v>1.058652375747404</v>
       </c>
       <c r="N5">
-        <v>1.032239683151072</v>
+        <v>1.0438330918639</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012319997339393</v>
+        <v>1.037970803056532</v>
       </c>
       <c r="D6">
-        <v>1.029720981276565</v>
+        <v>1.043737015082356</v>
       </c>
       <c r="E6">
-        <v>1.026017237728989</v>
+        <v>1.046288379993235</v>
       </c>
       <c r="F6">
-        <v>1.035809699606624</v>
+        <v>1.05631021232217</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046087199488295</v>
+        <v>1.034438501206334</v>
       </c>
       <c r="J6">
-        <v>1.030891885760503</v>
+        <v>1.042380040331548</v>
       </c>
       <c r="K6">
-        <v>1.039221252958142</v>
+        <v>1.046141582693901</v>
       </c>
       <c r="L6">
-        <v>1.035558057420435</v>
+        <v>1.048686776103979</v>
       </c>
       <c r="M6">
-        <v>1.045244085349957</v>
+        <v>1.058684676408806</v>
       </c>
       <c r="N6">
-        <v>1.032355870483235</v>
+        <v>1.04386033955148</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010970182177721</v>
+        <v>1.037671363661859</v>
       </c>
       <c r="D7">
-        <v>1.028738167492558</v>
+        <v>1.043513201099668</v>
       </c>
       <c r="E7">
-        <v>1.024901325991361</v>
+        <v>1.046025373307934</v>
       </c>
       <c r="F7">
-        <v>1.034617172360761</v>
+        <v>1.056028922618468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045821645413498</v>
+        <v>1.034398459820797</v>
       </c>
       <c r="J7">
-        <v>1.030091382728137</v>
+        <v>1.042192946119725</v>
       </c>
       <c r="K7">
-        <v>1.038498803007872</v>
+        <v>1.045977627418772</v>
       </c>
       <c r="L7">
-        <v>1.034705319767058</v>
+        <v>1.048483562713496</v>
       </c>
       <c r="M7">
-        <v>1.044312139534831</v>
+        <v>1.058462592947931</v>
       </c>
       <c r="N7">
-        <v>1.031554230644744</v>
+        <v>1.043672979644417</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005218347183581</v>
+        <v>1.036421022845272</v>
       </c>
       <c r="D8">
-        <v>1.02455473689088</v>
+        <v>1.042578380732271</v>
       </c>
       <c r="E8">
-        <v>1.020158301495957</v>
+        <v>1.044927883381115</v>
       </c>
       <c r="F8">
-        <v>1.029547442969873</v>
+        <v>1.054855029109671</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044667932613043</v>
+        <v>1.034228551428194</v>
       </c>
       <c r="J8">
-        <v>1.026676251654086</v>
+        <v>1.041410938877406</v>
       </c>
       <c r="K8">
-        <v>1.035412061892714</v>
+        <v>1.045291641398005</v>
       </c>
       <c r="L8">
-        <v>1.031071967156347</v>
+        <v>1.047634683841571</v>
       </c>
       <c r="M8">
-        <v>1.040341514081282</v>
+        <v>1.057534877594437</v>
       </c>
       <c r="N8">
-        <v>1.028134249692847</v>
+        <v>1.042889861862116</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9946372336914326</v>
+        <v>1.034222613228477</v>
       </c>
       <c r="D9">
-        <v>1.016880395686595</v>
+        <v>1.040933794985236</v>
       </c>
       <c r="E9">
-        <v>1.011482607175861</v>
+        <v>1.043000983826575</v>
       </c>
       <c r="F9">
-        <v>1.020270126765264</v>
+        <v>1.052793565302057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042463602568603</v>
+        <v>1.033919607766131</v>
       </c>
       <c r="J9">
-        <v>1.020380796778416</v>
+        <v>1.040033075456011</v>
       </c>
       <c r="K9">
-        <v>1.029705410880223</v>
+        <v>1.044080361645283</v>
       </c>
       <c r="L9">
-        <v>1.024392094197003</v>
+        <v>1.046140891364582</v>
       </c>
       <c r="M9">
-        <v>1.033042678229675</v>
+        <v>1.055902316221401</v>
       </c>
       <c r="N9">
-        <v>1.021829854549154</v>
+        <v>1.04151004171662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9872514242687493</v>
+        <v>1.032760334678796</v>
       </c>
       <c r="D10">
-        <v>1.011542271643262</v>
+        <v>1.039839303811794</v>
       </c>
       <c r="E10">
-        <v>1.005463652883328</v>
+        <v>1.04172119287101</v>
       </c>
       <c r="F10">
-        <v>1.013831092608747</v>
+        <v>1.051424116922279</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040872280616912</v>
+        <v>1.033707263593124</v>
       </c>
       <c r="J10">
-        <v>1.015980140777675</v>
+        <v>1.039114654746738</v>
       </c>
       <c r="K10">
-        <v>1.025706207792549</v>
+        <v>1.043271240856821</v>
       </c>
       <c r="L10">
-        <v>1.019734955161957</v>
+        <v>1.045146474067222</v>
       </c>
       <c r="M10">
-        <v>1.027955033519199</v>
+        <v>1.054815497215719</v>
       </c>
       <c r="N10">
-        <v>1.01742294911213</v>
+        <v>1.040590316744595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839668583561322</v>
+        <v>1.032127954948503</v>
       </c>
       <c r="D11">
-        <v>1.009173748993719</v>
+        <v>1.039365846973082</v>
       </c>
       <c r="E11">
-        <v>1.002796460243303</v>
+        <v>1.041168188740511</v>
       </c>
       <c r="F11">
-        <v>1.010977119896022</v>
+        <v>1.050832303730831</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040152752876312</v>
+        <v>1.033613809806231</v>
       </c>
       <c r="J11">
-        <v>1.014022187907091</v>
+        <v>1.038717018795786</v>
       </c>
       <c r="K11">
-        <v>1.023924710979549</v>
+        <v>1.042920517459058</v>
       </c>
       <c r="L11">
-        <v>1.017665831410561</v>
+        <v>1.044716238109599</v>
       </c>
       <c r="M11">
-        <v>1.025694950963249</v>
+        <v>1.054345278566805</v>
       </c>
       <c r="N11">
-        <v>1.01546221572389</v>
+        <v>1.040192116104983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9827331235670322</v>
+        <v>1.03189318169165</v>
       </c>
       <c r="D12">
-        <v>1.008284994388793</v>
+        <v>1.039190055447115</v>
       </c>
       <c r="E12">
-        <v>1.001796119915141</v>
+        <v>1.040962953242969</v>
       </c>
       <c r="F12">
-        <v>1.009906633443856</v>
+        <v>1.050612654900608</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039880764120005</v>
+        <v>1.033578871005018</v>
       </c>
       <c r="J12">
-        <v>1.013286662264643</v>
+        <v>1.038569327125573</v>
       </c>
       <c r="K12">
-        <v>1.0232551698798</v>
+        <v>1.042790188923266</v>
       </c>
       <c r="L12">
-        <v>1.016888989813218</v>
+        <v>1.044556483598621</v>
       </c>
       <c r="M12">
-        <v>1.024846467660973</v>
+        <v>1.054170677047868</v>
       </c>
       <c r="N12">
-        <v>1.014725645550664</v>
+        <v>1.040044214695659</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9829983958020452</v>
+        <v>1.031943535871733</v>
       </c>
       <c r="D13">
-        <v>1.008476048399469</v>
+        <v>1.039227760069118</v>
       </c>
       <c r="E13">
-        <v>1.002011139793359</v>
+        <v>1.041006969016832</v>
       </c>
       <c r="F13">
-        <v>1.010136735214048</v>
+        <v>1.050659762287532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039939322851976</v>
+        <v>1.0335863757101</v>
       </c>
       <c r="J13">
-        <v>1.01344481487199</v>
+        <v>1.038601007109701</v>
       </c>
       <c r="K13">
-        <v>1.02339914784171</v>
+        <v>1.042818147273032</v>
       </c>
       <c r="L13">
-        <v>1.017056005920584</v>
+        <v>1.044590749007946</v>
       </c>
       <c r="M13">
-        <v>1.025028883803062</v>
+        <v>1.05420812699169</v>
       </c>
       <c r="N13">
-        <v>1.014884022752853</v>
+        <v>1.040075939668997</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838651612260064</v>
+        <v>1.032108546048802</v>
       </c>
       <c r="D14">
-        <v>1.009100469874824</v>
+        <v>1.039351314524684</v>
       </c>
       <c r="E14">
-        <v>1.002713970994338</v>
+        <v>1.041151220334434</v>
       </c>
       <c r="F14">
-        <v>1.010888848211766</v>
+        <v>1.050814143871168</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040130367447322</v>
+        <v>1.033610926359149</v>
       </c>
       <c r="J14">
-        <v>1.013961559785841</v>
+        <v>1.038704810386294</v>
       </c>
       <c r="K14">
-        <v>1.023869527885506</v>
+        <v>1.042909745561654</v>
       </c>
       <c r="L14">
-        <v>1.017601788581993</v>
+        <v>1.044703031637641</v>
       </c>
       <c r="M14">
-        <v>1.025625000882676</v>
+        <v>1.054330844747009</v>
       </c>
       <c r="N14">
-        <v>1.015401501503753</v>
+        <v>1.04017989035815</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9843973664495104</v>
+        <v>1.032210230294899</v>
       </c>
       <c r="D15">
-        <v>1.009483994114734</v>
+        <v>1.039427450013492</v>
       </c>
       <c r="E15">
-        <v>1.003145718366729</v>
+        <v>1.041240121547907</v>
       </c>
       <c r="F15">
-        <v>1.011350856944034</v>
+        <v>1.050909286954517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040247445818933</v>
+        <v>1.033626022906634</v>
       </c>
       <c r="J15">
-        <v>1.01427883787338</v>
+        <v>1.038768768106714</v>
       </c>
       <c r="K15">
-        <v>1.024158298921273</v>
+        <v>1.042966175136216</v>
       </c>
       <c r="L15">
-        <v>1.017936954691315</v>
+        <v>1.04477221990016</v>
       </c>
       <c r="M15">
-        <v>1.025991084596622</v>
+        <v>1.054406463015164</v>
       </c>
       <c r="N15">
-        <v>1.015719230162569</v>
+        <v>1.040243938905868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9874675288500078</v>
+        <v>1.032802320511313</v>
       </c>
       <c r="D16">
-        <v>1.011698226159356</v>
+        <v>1.039870735513908</v>
       </c>
       <c r="E16">
-        <v>1.005639342191638</v>
+        <v>1.0417579183723</v>
       </c>
       <c r="F16">
-        <v>1.01401907215687</v>
+        <v>1.051463418339504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040919379020702</v>
+        <v>1.033713434102624</v>
       </c>
       <c r="J16">
-        <v>1.016108947253137</v>
+        <v>1.039141045601878</v>
       </c>
       <c r="K16">
-        <v>1.02582336265812</v>
+        <v>1.043294509542661</v>
       </c>
       <c r="L16">
-        <v>1.019871136869727</v>
+        <v>1.045175034956825</v>
       </c>
       <c r="M16">
-        <v>1.028103790383048</v>
+        <v>1.054846712225328</v>
       </c>
       <c r="N16">
-        <v>1.017551938507562</v>
+        <v>1.040616745077776</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893697253564624</v>
+        <v>1.033173937063238</v>
       </c>
       <c r="D17">
-        <v>1.013071596085132</v>
+        <v>1.040148922404801</v>
       </c>
       <c r="E17">
-        <v>1.007186887205462</v>
+        <v>1.042083028613513</v>
       </c>
       <c r="F17">
-        <v>1.015674803049552</v>
+        <v>1.051811323892521</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041332606150739</v>
+        <v>1.033767861668639</v>
       </c>
       <c r="J17">
-        <v>1.01724262886427</v>
+        <v>1.039374578586691</v>
       </c>
       <c r="K17">
-        <v>1.026854250007293</v>
+        <v>1.043500367127546</v>
       </c>
       <c r="L17">
-        <v>1.0210700668644</v>
+        <v>1.045427805634515</v>
       </c>
       <c r="M17">
-        <v>1.029413466913659</v>
+        <v>1.055122971928808</v>
       </c>
       <c r="N17">
-        <v>1.018687230076617</v>
+        <v>1.040850609706215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904709525754523</v>
+        <v>1.033390771492931</v>
       </c>
       <c r="D18">
-        <v>1.013867180780282</v>
+        <v>1.040311228879267</v>
       </c>
       <c r="E18">
-        <v>1.008083696918014</v>
+        <v>1.04227277114008</v>
       </c>
       <c r="F18">
-        <v>1.016634247053694</v>
+        <v>1.05201436380536</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041570704495582</v>
+        <v>1.033799462871181</v>
       </c>
       <c r="J18">
-        <v>1.017898853168663</v>
+        <v>1.039510798818601</v>
       </c>
       <c r="K18">
-        <v>1.027450766047166</v>
+        <v>1.043620404717012</v>
       </c>
       <c r="L18">
-        <v>1.02176433899651</v>
+        <v>1.045575276501428</v>
       </c>
       <c r="M18">
-        <v>1.030171898877948</v>
+        <v>1.055284146224348</v>
       </c>
       <c r="N18">
-        <v>1.019344386294792</v>
+        <v>1.040987023386479</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9908450569712126</v>
+        <v>1.033464719421324</v>
       </c>
       <c r="D19">
-        <v>1.014137537171629</v>
+        <v>1.040366578738737</v>
       </c>
       <c r="E19">
-        <v>1.008388507864768</v>
+        <v>1.042337487257603</v>
       </c>
       <c r="F19">
-        <v>1.016960336177753</v>
+        <v>1.05208361419982</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041651397157217</v>
+        <v>1.033810213372353</v>
       </c>
       <c r="J19">
-        <v>1.018121766041522</v>
+        <v>1.039557247109896</v>
       </c>
       <c r="K19">
-        <v>1.02765336096714</v>
+        <v>1.043661328349903</v>
       </c>
       <c r="L19">
-        <v>1.02200022358346</v>
+        <v>1.045625565987722</v>
       </c>
       <c r="M19">
-        <v>1.030429587052499</v>
+        <v>1.055339108674968</v>
       </c>
       <c r="N19">
-        <v>1.0195676157295</v>
+        <v>1.041033537639675</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9891665003205249</v>
+        <v>1.03313405817452</v>
       </c>
       <c r="D20">
-        <v>1.012924816022744</v>
+        <v>1.040119070942389</v>
       </c>
       <c r="E20">
-        <v>1.00702145836629</v>
+        <v>1.042048135846152</v>
       </c>
       <c r="F20">
-        <v>1.015497815609406</v>
+        <v>1.051773985272221</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04128857488136</v>
+        <v>1.033762037149109</v>
       </c>
       <c r="J20">
-        <v>1.017121518784675</v>
+        <v>1.039349522245401</v>
       </c>
       <c r="K20">
-        <v>1.026744142605379</v>
+        <v>1.043478284236743</v>
       </c>
       <c r="L20">
-        <v>1.020941957369997</v>
+        <v>1.045400682206787</v>
       </c>
       <c r="M20">
-        <v>1.029273520736037</v>
+        <v>1.055093328072843</v>
       </c>
       <c r="N20">
-        <v>1.018565948006818</v>
+        <v>1.040825517782046</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9836103045722898</v>
+        <v>1.032059951323086</v>
       </c>
       <c r="D21">
-        <v>1.008916844576915</v>
+        <v>1.039314928832889</v>
       </c>
       <c r="E21">
-        <v>1.002507274378477</v>
+        <v>1.041108737077646</v>
       </c>
       <c r="F21">
-        <v>1.010667660811491</v>
+        <v>1.050768677445301</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040074241202254</v>
+        <v>1.03360370303646</v>
       </c>
       <c r="J21">
-        <v>1.013809622306637</v>
+        <v>1.038674242678358</v>
       </c>
       <c r="K21">
-        <v>1.023731231142638</v>
+        <v>1.042882773636995</v>
       </c>
       <c r="L21">
-        <v>1.017441300863811</v>
+        <v>1.044669965693722</v>
       </c>
       <c r="M21">
-        <v>1.025449710795539</v>
+        <v>1.054294705797501</v>
       </c>
       <c r="N21">
-        <v>1.015249348255901</v>
+        <v>1.040149279240562</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9800372474115254</v>
+        <v>1.031385316760459</v>
       </c>
       <c r="D22">
-        <v>1.006344700027965</v>
+        <v>1.038809746781556</v>
       </c>
       <c r="E22">
-        <v>0.9996130783949587</v>
+        <v>1.040519112217263</v>
       </c>
       <c r="F22">
-        <v>1.007570341393916</v>
+        <v>1.050137625030105</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039283329892533</v>
+        <v>1.033502845364268</v>
       </c>
       <c r="J22">
-        <v>1.011679337276595</v>
+        <v>1.038249714585532</v>
       </c>
       <c r="K22">
-        <v>1.021791506361405</v>
+        <v>1.04250803918435</v>
       </c>
       <c r="L22">
-        <v>1.015192204176666</v>
+        <v>1.044210849862197</v>
       </c>
       <c r="M22">
-        <v>1.022993305452362</v>
+        <v>1.05379292012841</v>
       </c>
       <c r="N22">
-        <v>1.01311603797677</v>
+        <v>1.03972414826915</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9819391933293367</v>
+        <v>1.031742886689099</v>
       </c>
       <c r="D23">
-        <v>1.007713329801122</v>
+        <v>1.03907751358336</v>
       </c>
       <c r="E23">
-        <v>1.001152814650621</v>
+        <v>1.040831587039607</v>
       </c>
       <c r="F23">
-        <v>1.009218191928475</v>
+        <v>1.050472060204614</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039705256413331</v>
+        <v>1.033556435600356</v>
       </c>
       <c r="J23">
-        <v>1.012813320349911</v>
+        <v>1.038474760148404</v>
       </c>
       <c r="K23">
-        <v>1.02282420916773</v>
+        <v>1.042706722320748</v>
       </c>
       <c r="L23">
-        <v>1.016389185726893</v>
+        <v>1.044454205625417</v>
       </c>
       <c r="M23">
-        <v>1.024300586416739</v>
+        <v>1.054058893537329</v>
       </c>
       <c r="N23">
-        <v>1.01425163143612</v>
+        <v>1.039949513422534</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892583545390435</v>
+        <v>1.033152077490598</v>
       </c>
       <c r="D24">
-        <v>1.012991156516808</v>
+        <v>1.04013255939516</v>
       </c>
       <c r="E24">
-        <v>1.007096226573448</v>
+        <v>1.042063902042285</v>
       </c>
       <c r="F24">
-        <v>1.015577808096776</v>
+        <v>1.051790856640112</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041308479760827</v>
+        <v>1.033764669448324</v>
       </c>
       <c r="J24">
-        <v>1.017176258742782</v>
+        <v>1.039360844114023</v>
       </c>
       <c r="K24">
-        <v>1.026793910158229</v>
+        <v>1.043488262654841</v>
       </c>
       <c r="L24">
-        <v>1.020999860094349</v>
+        <v>1.04541293801131</v>
       </c>
       <c r="M24">
-        <v>1.029336773295727</v>
+        <v>1.055106722742142</v>
       </c>
       <c r="N24">
-        <v>1.018620765701944</v>
+        <v>1.04083685572902</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9974286991319049</v>
+        <v>1.034790373143384</v>
       </c>
       <c r="D25">
-        <v>1.018902089110475</v>
+        <v>1.04135863182902</v>
       </c>
       <c r="E25">
-        <v>1.013765281800783</v>
+        <v>1.043498292586116</v>
       </c>
       <c r="F25">
-        <v>1.022711563375739</v>
+        <v>1.053325653403846</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043054430502951</v>
+        <v>1.034000604475802</v>
       </c>
       <c r="J25">
-        <v>1.022042908753653</v>
+        <v>1.040389263660504</v>
       </c>
       <c r="K25">
-        <v>1.031213893400736</v>
+        <v>1.044393793774605</v>
       </c>
       <c r="L25">
-        <v>1.026153602616376</v>
+        <v>1.046526823251818</v>
       </c>
       <c r="M25">
-        <v>1.034967252879565</v>
+        <v>1.056324104332246</v>
       </c>
       <c r="N25">
-        <v>1.023494326914044</v>
+        <v>1.041866735749218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036099460753967</v>
+        <v>1.003708457850407</v>
       </c>
       <c r="D2">
-        <v>1.042337898687244</v>
+        <v>1.023457855205273</v>
       </c>
       <c r="E2">
-        <v>1.044645817576086</v>
+        <v>1.018916424852061</v>
       </c>
       <c r="F2">
-        <v>1.05455329833542</v>
+        <v>1.028219754199462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034184161016004</v>
+        <v>1.044359518261481</v>
       </c>
       <c r="J2">
-        <v>1.041209624849915</v>
+        <v>1.025778812534958</v>
       </c>
       <c r="K2">
-        <v>1.04511486930196</v>
+        <v>1.034599778987909</v>
       </c>
       <c r="L2">
-        <v>1.047416283515993</v>
+        <v>1.030118367116794</v>
       </c>
       <c r="M2">
-        <v>1.057296191440882</v>
+        <v>1.039299458792916</v>
       </c>
       <c r="N2">
-        <v>1.042688261945616</v>
+        <v>1.027235536107233</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037051341506283</v>
+        <v>1.008141432631195</v>
       </c>
       <c r="D3">
-        <v>1.04304969165982</v>
+        <v>1.026679812077501</v>
       </c>
       <c r="E3">
-        <v>1.04548100243015</v>
+        <v>1.02256628006509</v>
       </c>
       <c r="F3">
-        <v>1.055446676686627</v>
+        <v>1.032121495461723</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034314746747185</v>
+        <v>1.045258586032012</v>
       </c>
       <c r="J3">
-        <v>1.041805317070951</v>
+        <v>1.028412587984431</v>
       </c>
       <c r="K3">
-        <v>1.045637732967678</v>
+        <v>1.036982331572307</v>
       </c>
       <c r="L3">
-        <v>1.048062686062535</v>
+        <v>1.032918338855418</v>
       </c>
       <c r="M3">
-        <v>1.058002631086925</v>
+        <v>1.042359232376355</v>
       </c>
       <c r="N3">
-        <v>1.043284800117932</v>
+        <v>1.029873051819941</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03766789880341</v>
+        <v>1.010954501337195</v>
       </c>
       <c r="D4">
-        <v>1.043510611168711</v>
+        <v>1.028726752395469</v>
       </c>
       <c r="E4">
-        <v>1.046022330412263</v>
+        <v>1.024888368832308</v>
       </c>
       <c r="F4">
-        <v>1.056025668133737</v>
+        <v>1.034603325020449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034397995007858</v>
+        <v>1.045818548338634</v>
       </c>
       <c r="J4">
-        <v>1.042190780797846</v>
+        <v>1.030082080970644</v>
       </c>
       <c r="K4">
-        <v>1.045975729512719</v>
+        <v>1.038490405676258</v>
       </c>
       <c r="L4">
-        <v>1.048481211112893</v>
+        <v>1.034695413549105</v>
       </c>
       <c r="M4">
-        <v>1.058460022975323</v>
+        <v>1.044301313265282</v>
       </c>
       <c r="N4">
-        <v>1.043670811247532</v>
+        <v>1.031544915677689</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037927248415337</v>
+        <v>1.012124317641967</v>
       </c>
       <c r="D5">
-        <v>1.043704462010726</v>
+        <v>1.029578481145871</v>
       </c>
       <c r="E5">
-        <v>1.046250120438522</v>
+        <v>1.02585539861337</v>
       </c>
       <c r="F5">
-        <v>1.056269293787095</v>
+        <v>1.035636755189096</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034432692873686</v>
+        <v>1.046048831782023</v>
       </c>
       <c r="J5">
-        <v>1.042352831283936</v>
+        <v>1.030775863193693</v>
       </c>
       <c r="K5">
-        <v>1.046117742792241</v>
+        <v>1.039116570284583</v>
       </c>
       <c r="L5">
-        <v>1.04865721991717</v>
+        <v>1.035434437577544</v>
       </c>
       <c r="M5">
-        <v>1.058652375747404</v>
+        <v>1.045108981738501</v>
       </c>
       <c r="N5">
-        <v>1.0438330918639</v>
+        <v>1.032239683151072</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037970803056532</v>
+        <v>1.012319997339392</v>
       </c>
       <c r="D6">
-        <v>1.043737015082356</v>
+        <v>1.029720981276564</v>
       </c>
       <c r="E6">
-        <v>1.046288379993235</v>
+        <v>1.026017237728989</v>
       </c>
       <c r="F6">
-        <v>1.05631021232217</v>
+        <v>1.035809699606623</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034438501206334</v>
+        <v>1.046087199488295</v>
       </c>
       <c r="J6">
-        <v>1.042380040331548</v>
+        <v>1.030891885760502</v>
       </c>
       <c r="K6">
-        <v>1.046141582693901</v>
+        <v>1.039221252958141</v>
       </c>
       <c r="L6">
-        <v>1.048686776103979</v>
+        <v>1.035558057420435</v>
       </c>
       <c r="M6">
-        <v>1.058684676408806</v>
+        <v>1.045244085349956</v>
       </c>
       <c r="N6">
-        <v>1.04386033955148</v>
+        <v>1.032355870483234</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037671363661859</v>
+        <v>1.01097018217772</v>
       </c>
       <c r="D7">
-        <v>1.043513201099668</v>
+        <v>1.028738167492558</v>
       </c>
       <c r="E7">
-        <v>1.046025373307934</v>
+        <v>1.024901325991361</v>
       </c>
       <c r="F7">
-        <v>1.056028922618468</v>
+        <v>1.034617172360761</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034398459820797</v>
+        <v>1.045821645413498</v>
       </c>
       <c r="J7">
-        <v>1.042192946119725</v>
+        <v>1.030091382728137</v>
       </c>
       <c r="K7">
-        <v>1.045977627418772</v>
+        <v>1.038498803007872</v>
       </c>
       <c r="L7">
-        <v>1.048483562713496</v>
+        <v>1.034705319767058</v>
       </c>
       <c r="M7">
-        <v>1.058462592947931</v>
+        <v>1.044312139534831</v>
       </c>
       <c r="N7">
-        <v>1.043672979644417</v>
+        <v>1.031554230644744</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036421022845272</v>
+        <v>1.005218347183581</v>
       </c>
       <c r="D8">
-        <v>1.042578380732271</v>
+        <v>1.024554736890879</v>
       </c>
       <c r="E8">
-        <v>1.044927883381115</v>
+        <v>1.020158301495956</v>
       </c>
       <c r="F8">
-        <v>1.054855029109671</v>
+        <v>1.029547442969872</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034228551428194</v>
+        <v>1.044667932613043</v>
       </c>
       <c r="J8">
-        <v>1.041410938877406</v>
+        <v>1.026676251654085</v>
       </c>
       <c r="K8">
-        <v>1.045291641398005</v>
+        <v>1.035412061892713</v>
       </c>
       <c r="L8">
-        <v>1.047634683841571</v>
+        <v>1.031071967156346</v>
       </c>
       <c r="M8">
-        <v>1.057534877594437</v>
+        <v>1.040341514081281</v>
       </c>
       <c r="N8">
-        <v>1.042889861862116</v>
+        <v>1.028134249692846</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034222613228477</v>
+        <v>0.9946372336914323</v>
       </c>
       <c r="D9">
-        <v>1.040933794985236</v>
+        <v>1.016880395686595</v>
       </c>
       <c r="E9">
-        <v>1.043000983826575</v>
+        <v>1.011482607175861</v>
       </c>
       <c r="F9">
-        <v>1.052793565302057</v>
+        <v>1.020270126765264</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033919607766131</v>
+        <v>1.042463602568603</v>
       </c>
       <c r="J9">
-        <v>1.040033075456011</v>
+        <v>1.020380796778416</v>
       </c>
       <c r="K9">
-        <v>1.044080361645283</v>
+        <v>1.029705410880223</v>
       </c>
       <c r="L9">
-        <v>1.046140891364582</v>
+        <v>1.024392094197003</v>
       </c>
       <c r="M9">
-        <v>1.055902316221401</v>
+        <v>1.033042678229675</v>
       </c>
       <c r="N9">
-        <v>1.04151004171662</v>
+        <v>1.021829854549154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032760334678796</v>
+        <v>0.9872514242687493</v>
       </c>
       <c r="D10">
-        <v>1.039839303811794</v>
+        <v>1.011542271643261</v>
       </c>
       <c r="E10">
-        <v>1.04172119287101</v>
+        <v>1.005463652883328</v>
       </c>
       <c r="F10">
-        <v>1.051424116922279</v>
+        <v>1.013831092608747</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033707263593124</v>
+        <v>1.040872280616912</v>
       </c>
       <c r="J10">
-        <v>1.039114654746738</v>
+        <v>1.015980140777675</v>
       </c>
       <c r="K10">
-        <v>1.043271240856821</v>
+        <v>1.025706207792549</v>
       </c>
       <c r="L10">
-        <v>1.045146474067222</v>
+        <v>1.019734955161957</v>
       </c>
       <c r="M10">
-        <v>1.054815497215719</v>
+        <v>1.027955033519199</v>
       </c>
       <c r="N10">
-        <v>1.040590316744595</v>
+        <v>1.01742294911213</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032127954948503</v>
+        <v>0.983966858356132</v>
       </c>
       <c r="D11">
-        <v>1.039365846973082</v>
+        <v>1.009173748993718</v>
       </c>
       <c r="E11">
-        <v>1.041168188740511</v>
+        <v>1.002796460243303</v>
       </c>
       <c r="F11">
-        <v>1.050832303730831</v>
+        <v>1.010977119896022</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033613809806231</v>
+        <v>1.040152752876312</v>
       </c>
       <c r="J11">
-        <v>1.038717018795786</v>
+        <v>1.014022187907091</v>
       </c>
       <c r="K11">
-        <v>1.042920517459058</v>
+        <v>1.023924710979548</v>
       </c>
       <c r="L11">
-        <v>1.044716238109599</v>
+        <v>1.017665831410561</v>
       </c>
       <c r="M11">
-        <v>1.054345278566805</v>
+        <v>1.025694950963249</v>
       </c>
       <c r="N11">
-        <v>1.040192116104983</v>
+        <v>1.015462215723889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03189318169165</v>
+        <v>0.9827331235670319</v>
       </c>
       <c r="D12">
-        <v>1.039190055447115</v>
+        <v>1.008284994388793</v>
       </c>
       <c r="E12">
-        <v>1.040962953242969</v>
+        <v>1.001796119915141</v>
       </c>
       <c r="F12">
-        <v>1.050612654900608</v>
+        <v>1.009906633443856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033578871005018</v>
+        <v>1.039880764120005</v>
       </c>
       <c r="J12">
-        <v>1.038569327125573</v>
+        <v>1.013286662264643</v>
       </c>
       <c r="K12">
-        <v>1.042790188923266</v>
+        <v>1.023255169879799</v>
       </c>
       <c r="L12">
-        <v>1.044556483598621</v>
+        <v>1.016888989813218</v>
       </c>
       <c r="M12">
-        <v>1.054170677047868</v>
+        <v>1.024846467660973</v>
       </c>
       <c r="N12">
-        <v>1.040044214695659</v>
+        <v>1.014725645550663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031943535871733</v>
+        <v>0.9829983958020443</v>
       </c>
       <c r="D13">
-        <v>1.039227760069118</v>
+        <v>1.008476048399468</v>
       </c>
       <c r="E13">
-        <v>1.041006969016832</v>
+        <v>1.002011139793358</v>
       </c>
       <c r="F13">
-        <v>1.050659762287532</v>
+        <v>1.010136735214048</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0335863757101</v>
+        <v>1.039939322851975</v>
       </c>
       <c r="J13">
-        <v>1.038601007109701</v>
+        <v>1.013444814871989</v>
       </c>
       <c r="K13">
-        <v>1.042818147273032</v>
+        <v>1.02339914784171</v>
       </c>
       <c r="L13">
-        <v>1.044590749007946</v>
+        <v>1.017056005920584</v>
       </c>
       <c r="M13">
-        <v>1.05420812699169</v>
+        <v>1.025028883803061</v>
       </c>
       <c r="N13">
-        <v>1.040075939668997</v>
+        <v>1.014884022752853</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032108546048802</v>
+        <v>0.9838651612260073</v>
       </c>
       <c r="D14">
-        <v>1.039351314524684</v>
+        <v>1.009100469874825</v>
       </c>
       <c r="E14">
-        <v>1.041151220334434</v>
+        <v>1.002713970994339</v>
       </c>
       <c r="F14">
-        <v>1.050814143871168</v>
+        <v>1.010888848211767</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033610926359149</v>
+        <v>1.040130367447322</v>
       </c>
       <c r="J14">
-        <v>1.038704810386294</v>
+        <v>1.013961559785841</v>
       </c>
       <c r="K14">
-        <v>1.042909745561654</v>
+        <v>1.023869527885507</v>
       </c>
       <c r="L14">
-        <v>1.044703031637641</v>
+        <v>1.017601788581993</v>
       </c>
       <c r="M14">
-        <v>1.054330844747009</v>
+        <v>1.025625000882676</v>
       </c>
       <c r="N14">
-        <v>1.04017989035815</v>
+        <v>1.015401501503753</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032210230294899</v>
+        <v>0.9843973664495093</v>
       </c>
       <c r="D15">
-        <v>1.039427450013492</v>
+        <v>1.009483994114734</v>
       </c>
       <c r="E15">
-        <v>1.041240121547907</v>
+        <v>1.003145718366728</v>
       </c>
       <c r="F15">
-        <v>1.050909286954517</v>
+        <v>1.011350856944033</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033626022906634</v>
+        <v>1.040247445818933</v>
       </c>
       <c r="J15">
-        <v>1.038768768106714</v>
+        <v>1.014278837873379</v>
       </c>
       <c r="K15">
-        <v>1.042966175136216</v>
+        <v>1.024158298921272</v>
       </c>
       <c r="L15">
-        <v>1.04477221990016</v>
+        <v>1.017936954691314</v>
       </c>
       <c r="M15">
-        <v>1.054406463015164</v>
+        <v>1.025991084596621</v>
       </c>
       <c r="N15">
-        <v>1.040243938905868</v>
+        <v>1.015719230162568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032802320511313</v>
+        <v>0.9874675288500074</v>
       </c>
       <c r="D16">
-        <v>1.039870735513908</v>
+        <v>1.011698226159357</v>
       </c>
       <c r="E16">
-        <v>1.0417579183723</v>
+        <v>1.005639342191638</v>
       </c>
       <c r="F16">
-        <v>1.051463418339504</v>
+        <v>1.01401907215687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033713434102624</v>
+        <v>1.040919379020702</v>
       </c>
       <c r="J16">
-        <v>1.039141045601878</v>
+        <v>1.016108947253137</v>
       </c>
       <c r="K16">
-        <v>1.043294509542661</v>
+        <v>1.02582336265812</v>
       </c>
       <c r="L16">
-        <v>1.045175034956825</v>
+        <v>1.019871136869727</v>
       </c>
       <c r="M16">
-        <v>1.054846712225328</v>
+        <v>1.028103790383048</v>
       </c>
       <c r="N16">
-        <v>1.040616745077776</v>
+        <v>1.017551938507562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033173937063238</v>
+        <v>0.9893697253564606</v>
       </c>
       <c r="D17">
-        <v>1.040148922404801</v>
+        <v>1.01307159608513</v>
       </c>
       <c r="E17">
-        <v>1.042083028613513</v>
+        <v>1.007186887205461</v>
       </c>
       <c r="F17">
-        <v>1.051811323892521</v>
+        <v>1.015674803049551</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033767861668639</v>
+        <v>1.041332606150738</v>
       </c>
       <c r="J17">
-        <v>1.039374578586691</v>
+        <v>1.017242628864268</v>
       </c>
       <c r="K17">
-        <v>1.043500367127546</v>
+        <v>1.026854250007292</v>
       </c>
       <c r="L17">
-        <v>1.045427805634515</v>
+        <v>1.021070066864399</v>
       </c>
       <c r="M17">
-        <v>1.055122971928808</v>
+        <v>1.029413466913658</v>
       </c>
       <c r="N17">
-        <v>1.040850609706215</v>
+        <v>1.018687230076615</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033390771492931</v>
+        <v>0.9904709525754516</v>
       </c>
       <c r="D18">
-        <v>1.040311228879267</v>
+        <v>1.013867180780281</v>
       </c>
       <c r="E18">
-        <v>1.04227277114008</v>
+        <v>1.008083696918014</v>
       </c>
       <c r="F18">
-        <v>1.05201436380536</v>
+        <v>1.016634247053694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033799462871181</v>
+        <v>1.041570704495582</v>
       </c>
       <c r="J18">
-        <v>1.039510798818601</v>
+        <v>1.017898853168662</v>
       </c>
       <c r="K18">
-        <v>1.043620404717012</v>
+        <v>1.027450766047166</v>
       </c>
       <c r="L18">
-        <v>1.045575276501428</v>
+        <v>1.021764338996509</v>
       </c>
       <c r="M18">
-        <v>1.055284146224348</v>
+        <v>1.030171898877948</v>
       </c>
       <c r="N18">
-        <v>1.040987023386479</v>
+        <v>1.019344386294792</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033464719421324</v>
+        <v>0.9908450569712123</v>
       </c>
       <c r="D19">
-        <v>1.040366578738737</v>
+        <v>1.014137537171628</v>
       </c>
       <c r="E19">
-        <v>1.042337487257603</v>
+        <v>1.008388507864768</v>
       </c>
       <c r="F19">
-        <v>1.05208361419982</v>
+        <v>1.016960336177753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033810213372353</v>
+        <v>1.041651397157216</v>
       </c>
       <c r="J19">
-        <v>1.039557247109896</v>
+        <v>1.018121766041522</v>
       </c>
       <c r="K19">
-        <v>1.043661328349903</v>
+        <v>1.027653360967139</v>
       </c>
       <c r="L19">
-        <v>1.045625565987722</v>
+        <v>1.02200022358346</v>
       </c>
       <c r="M19">
-        <v>1.055339108674968</v>
+        <v>1.030429587052499</v>
       </c>
       <c r="N19">
-        <v>1.041033537639675</v>
+        <v>1.019567615729499</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03313405817452</v>
+        <v>0.989166500320525</v>
       </c>
       <c r="D20">
-        <v>1.040119070942389</v>
+        <v>1.012924816022744</v>
       </c>
       <c r="E20">
-        <v>1.042048135846152</v>
+        <v>1.007021458366289</v>
       </c>
       <c r="F20">
-        <v>1.051773985272221</v>
+        <v>1.015497815609406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033762037149109</v>
+        <v>1.04128857488136</v>
       </c>
       <c r="J20">
-        <v>1.039349522245401</v>
+        <v>1.017121518784675</v>
       </c>
       <c r="K20">
-        <v>1.043478284236743</v>
+        <v>1.026744142605379</v>
       </c>
       <c r="L20">
-        <v>1.045400682206787</v>
+        <v>1.020941957369997</v>
       </c>
       <c r="M20">
-        <v>1.055093328072843</v>
+        <v>1.029273520736037</v>
       </c>
       <c r="N20">
-        <v>1.040825517782046</v>
+        <v>1.018565948006818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032059951323086</v>
+        <v>0.98361030457229</v>
       </c>
       <c r="D21">
-        <v>1.039314928832889</v>
+        <v>1.008916844576915</v>
       </c>
       <c r="E21">
-        <v>1.041108737077646</v>
+        <v>1.002507274378477</v>
       </c>
       <c r="F21">
-        <v>1.050768677445301</v>
+        <v>1.010667660811491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03360370303646</v>
+        <v>1.040074241202254</v>
       </c>
       <c r="J21">
-        <v>1.038674242678358</v>
+        <v>1.013809622306637</v>
       </c>
       <c r="K21">
-        <v>1.042882773636995</v>
+        <v>1.023731231142639</v>
       </c>
       <c r="L21">
-        <v>1.044669965693722</v>
+        <v>1.017441300863811</v>
       </c>
       <c r="M21">
-        <v>1.054294705797501</v>
+        <v>1.025449710795539</v>
       </c>
       <c r="N21">
-        <v>1.040149279240562</v>
+        <v>1.015249348255902</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031385316760459</v>
+        <v>0.980037247411526</v>
       </c>
       <c r="D22">
-        <v>1.038809746781556</v>
+        <v>1.006344700027966</v>
       </c>
       <c r="E22">
-        <v>1.040519112217263</v>
+        <v>0.9996130783949586</v>
       </c>
       <c r="F22">
-        <v>1.050137625030105</v>
+        <v>1.007570341393916</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033502845364268</v>
+        <v>1.039283329892533</v>
       </c>
       <c r="J22">
-        <v>1.038249714585532</v>
+        <v>1.011679337276596</v>
       </c>
       <c r="K22">
-        <v>1.04250803918435</v>
+        <v>1.021791506361405</v>
       </c>
       <c r="L22">
-        <v>1.044210849862197</v>
+        <v>1.015192204176666</v>
       </c>
       <c r="M22">
-        <v>1.05379292012841</v>
+        <v>1.022993305452361</v>
       </c>
       <c r="N22">
-        <v>1.03972414826915</v>
+        <v>1.013116037976771</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031742886689099</v>
+        <v>0.9819391933293357</v>
       </c>
       <c r="D23">
-        <v>1.03907751358336</v>
+        <v>1.007713329801122</v>
       </c>
       <c r="E23">
-        <v>1.040831587039607</v>
+        <v>1.00115281465062</v>
       </c>
       <c r="F23">
-        <v>1.050472060204614</v>
+        <v>1.009218191928474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033556435600356</v>
+        <v>1.03970525641333</v>
       </c>
       <c r="J23">
-        <v>1.038474760148404</v>
+        <v>1.012813320349911</v>
       </c>
       <c r="K23">
-        <v>1.042706722320748</v>
+        <v>1.02282420916773</v>
       </c>
       <c r="L23">
-        <v>1.044454205625417</v>
+        <v>1.016389185726892</v>
       </c>
       <c r="M23">
-        <v>1.054058893537329</v>
+        <v>1.024300586416738</v>
       </c>
       <c r="N23">
-        <v>1.039949513422534</v>
+        <v>1.014251631436119</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033152077490598</v>
+        <v>0.989258354539043</v>
       </c>
       <c r="D24">
-        <v>1.04013255939516</v>
+        <v>1.012991156516808</v>
       </c>
       <c r="E24">
-        <v>1.042063902042285</v>
+        <v>1.007096226573448</v>
       </c>
       <c r="F24">
-        <v>1.051790856640112</v>
+        <v>1.015577808096775</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033764669448324</v>
+        <v>1.041308479760827</v>
       </c>
       <c r="J24">
-        <v>1.039360844114023</v>
+        <v>1.017176258742781</v>
       </c>
       <c r="K24">
-        <v>1.043488262654841</v>
+        <v>1.026793910158229</v>
       </c>
       <c r="L24">
-        <v>1.04541293801131</v>
+        <v>1.020999860094349</v>
       </c>
       <c r="M24">
-        <v>1.055106722742142</v>
+        <v>1.029336773295726</v>
       </c>
       <c r="N24">
-        <v>1.04083685572902</v>
+        <v>1.018620765701943</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034790373143384</v>
+        <v>0.9974286991319051</v>
       </c>
       <c r="D25">
-        <v>1.04135863182902</v>
+        <v>1.018902089110475</v>
       </c>
       <c r="E25">
-        <v>1.043498292586116</v>
+        <v>1.013765281800783</v>
       </c>
       <c r="F25">
-        <v>1.053325653403846</v>
+        <v>1.022711563375739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034000604475802</v>
+        <v>1.043054430502951</v>
       </c>
       <c r="J25">
-        <v>1.040389263660504</v>
+        <v>1.022042908753653</v>
       </c>
       <c r="K25">
-        <v>1.044393793774605</v>
+        <v>1.031213893400736</v>
       </c>
       <c r="L25">
-        <v>1.046526823251818</v>
+        <v>1.026153602616376</v>
       </c>
       <c r="M25">
-        <v>1.056324104332246</v>
+        <v>1.034967252879565</v>
       </c>
       <c r="N25">
-        <v>1.041866735749218</v>
+        <v>1.023494326914044</v>
       </c>
     </row>
   </sheetData>
